--- a/biology/Botanique/Jardins_maraîchers_de_la_Baratte/Jardins_maraîchers_de_la_Baratte.xlsx
+++ b/biology/Botanique/Jardins_maraîchers_de_la_Baratte/Jardins_maraîchers_de_la_Baratte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_mara%C3%AEchers_de_la_Baratte</t>
+          <t>Jardins_maraîchers_de_la_Baratte</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins potagers et maraîchers de la Baratte sont situés sur la plaine alluviale des bords de la Loire, en zone péri urbaine et humide, sur les communes de Nevers et de Saint-Éloi (Nièvre).
